--- a/xlsx/爱达荷州_intext.xlsx
+++ b/xlsx/爱达荷州_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="343">
   <si>
     <t>爱达荷州</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_爱达荷州</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_爱达荷州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E9%81%94%E8%8D%B7%E5%B7%9E%E5%B7%9E%E6%97%97</t>
   </si>
   <si>
-    <t>愛達荷州州旗</t>
+    <t>爱达荷州州旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A5%87%C2%B7%E5%A5%A7%E7%89%B9</t>
   </si>
   <si>
-    <t>巴奇·奧特</t>
+    <t>巴奇·奥特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Idaho</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%C2%B7%E6%9F%AF%E7%91%9E%E6%9F%8F</t>
   </si>
   <si>
-    <t>麥克·柯瑞柏</t>
+    <t>麦克·柯瑞柏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%A7%86%C2%B7%E9%87%8C%E6%96%BD</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%8D%B7%E8%8F%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>愛荷華州</t>
+    <t>爱荷华州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
@@ -221,25 +221,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B</t>
   </si>
   <si>
-    <t>美國獨立</t>
+    <t>美国独立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%98%E9%87%91%E7%86%B1</t>
   </si>
   <si>
-    <t>淘金熱</t>
+    <t>淘金热</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9B%87%E6%B2%B3</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8A%A0%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>食品加工業</t>
+    <t>食品加工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E4%B8%9A</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%80%E5%85%89%E6%A5%AD</t>
   </si>
   <si>
-    <t>觀光業</t>
+    <t>观光业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%87%E7%9F%BF</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%BE%8E%E8%A3%94%E4%BA%BA</t>
@@ -311,25 +311,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>德國人</t>
+    <t>德国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>英國人</t>
+    <t>英国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E4%BA%BA</t>
   </si>
   <si>
-    <t>愛爾蘭人</t>
+    <t>爱尔兰人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>美國人</t>
+    <t>美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E4%BA%BA</t>
@@ -353,31 +353,28 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%9F%BA%E7%9D%A3%E5%BE%8C%E6%9C%9F%E8%81%96%E5%BE%92%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>耶穌基督後期聖徒教會</t>
+    <t>耶稣基督后期圣徒教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A8%A3%E5%9F%BA%E7%9D%A3%E5%90%8E%E6%9C%9F%E5%9C%A3%E5%BE%92%E6%95%99%E4%BC%9A</t>
   </si>
   <si>
-    <t>耶稣基督后期圣徒教会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬天主教</t>
+    <t>罗马天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%90%86%E5%85%AC%E6%9C%83%E6%B4%BE</t>
   </si>
   <si>
-    <t>衛理公會派</t>
+    <t>卫理公会派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E6%9C%83</t>
   </si>
   <si>
-    <t>路德會</t>
+    <t>路德会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E7%A4%BC%E4%BC%9A</t>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%96%AF%E7%A7%91_(%E6%84%9B%E9%81%94%E8%8D%B7%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫斯科 (愛達荷州)</t>
+    <t>莫斯科 (爱达荷州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%98%E6%98%93%E6%96%AF%E9%A1%BF_(%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E)</t>
@@ -455,13 +452,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E9%81%94%E8%8D%B7%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>愛達荷大學</t>
+    <t>爱达荷大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E9%81%94%E8%8D%B7%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>愛達荷州立大學</t>
+    <t>爱达荷州立大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lewis_%26_Clark_College</t>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E7%99%BE%E7%BF%B0%E5%A4%A7%E5%AD%B8%E6%84%9B%E9%81%94%E8%8D%B7%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>楊百翰大學愛達荷分校</t>
+    <t>杨百翰大学爱达荷分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E9%97%A8%E6%95%99</t>
@@ -521,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%B0%8F%E7%86%8A</t>
@@ -533,13 +530,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B8%82%E7%9A%87%E5%AE%B6</t>
   </si>
   <si>
-    <t>堪薩斯市皇家</t>
+    <t>堪萨斯市皇家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/15%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>15號州際公路</t>
+    <t>15号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/86%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF_(%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E)</t>
@@ -563,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%91%E8%A9%A9%E7%9C%81</t>
   </si>
   <si>
-    <t>卑詩省</t>
+    <t>卑诗省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%BC%AF%E5%A1%94%E7%9C%81</t>
@@ -617,7 +614,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
@@ -635,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -647,13 +644,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -677,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -707,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -737,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -749,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -761,13 +755,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
@@ -815,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -827,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -869,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -881,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -893,19 +887,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -923,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -935,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -947,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -959,25 +953,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -1007,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1025,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1043,13 +1037,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3073,7 +3067,7 @@
         <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3099,10 +3093,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3128,10 +3122,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3157,10 +3151,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3186,10 +3180,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3215,10 +3209,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3244,10 +3238,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3273,10 +3267,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3302,10 +3296,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3331,10 +3325,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3360,10 +3354,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3389,10 +3383,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3418,10 +3412,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3447,10 +3441,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3476,10 +3470,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3505,10 +3499,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3534,10 +3528,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3563,10 +3557,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3592,10 +3586,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3621,10 +3615,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3650,10 +3644,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3679,10 +3673,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3708,10 +3702,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3737,10 +3731,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3766,10 +3760,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -3795,10 +3789,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3824,10 +3818,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3853,10 +3847,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3882,10 +3876,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3911,10 +3905,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3940,10 +3934,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3969,10 +3963,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3998,10 +3992,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -4027,10 +4021,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4056,10 +4050,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4085,10 +4079,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4114,10 +4108,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4143,10 +4137,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4172,10 +4166,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4201,10 +4195,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4230,10 +4224,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4259,10 +4253,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4288,10 +4282,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -4317,10 +4311,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4346,10 +4340,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4375,10 +4369,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4404,10 +4398,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4433,10 +4427,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4462,10 +4456,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4491,10 +4485,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4520,10 +4514,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4549,10 +4543,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4578,10 +4572,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4607,10 +4601,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4636,10 +4630,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4665,10 +4659,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4694,10 +4688,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4723,10 +4717,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4752,10 +4746,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -4781,10 +4775,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4810,10 +4804,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4839,10 +4833,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4868,10 +4862,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4897,10 +4891,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4926,10 +4920,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4955,10 +4949,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4984,10 +4978,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5013,10 +5007,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5042,10 +5036,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>188</v>
+      </c>
+      <c r="F126" t="s">
         <v>189</v>
-      </c>
-      <c r="F126" t="s">
-        <v>190</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5071,10 +5065,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5100,10 +5094,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>192</v>
+      </c>
+      <c r="F128" t="s">
         <v>193</v>
-      </c>
-      <c r="F128" t="s">
-        <v>194</v>
       </c>
       <c r="G128" t="n">
         <v>3</v>
@@ -5129,10 +5123,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5158,10 +5152,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5187,10 +5181,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5216,10 +5210,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5245,10 +5239,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5274,10 +5268,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5303,10 +5297,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5332,10 +5326,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5361,10 +5355,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>186</v>
+      </c>
+      <c r="F137" t="s">
         <v>187</v>
-      </c>
-      <c r="F137" t="s">
-        <v>188</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5390,10 +5384,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5419,10 +5413,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5448,10 +5442,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5477,10 +5471,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5506,10 +5500,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5535,10 +5529,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5564,10 +5558,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>194</v>
+      </c>
+      <c r="F144" t="s">
         <v>195</v>
-      </c>
-      <c r="F144" t="s">
-        <v>196</v>
       </c>
       <c r="G144" t="n">
         <v>3</v>
@@ -5593,10 +5587,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5622,10 +5616,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -5651,10 +5645,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>184</v>
+      </c>
+      <c r="F147" t="s">
         <v>185</v>
-      </c>
-      <c r="F147" t="s">
-        <v>186</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -5680,10 +5674,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5709,10 +5703,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5738,10 +5732,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>190</v>
+      </c>
+      <c r="F150" t="s">
         <v>191</v>
-      </c>
-      <c r="F150" t="s">
-        <v>192</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -5767,10 +5761,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5796,10 +5790,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5825,10 +5819,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5854,10 +5848,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5883,10 +5877,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5912,10 +5906,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5941,10 +5935,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5970,10 +5964,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5999,10 +5993,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6028,10 +6022,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6057,10 +6051,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6086,10 +6080,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6115,10 +6109,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6144,10 +6138,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6173,10 +6167,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6202,10 +6196,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6231,10 +6225,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6260,10 +6254,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6289,10 +6283,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6318,10 +6312,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6347,10 +6341,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6376,10 +6370,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G172" t="n">
         <v>3</v>
@@ -6405,10 +6399,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6434,10 +6428,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6463,10 +6457,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6492,10 +6486,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6521,10 +6515,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6550,10 +6544,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6579,10 +6573,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
